--- a/fhir/ig/urgencia/StructureDefinition-encounter-admision.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-encounter-admision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Encounter Admisión</t>
+    <t>Encuentro Admisión</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Registro de un encuentro de admisión de un paciente a la urgencia de un establecimiento de salud.</t>
+    <t>Registro de un encuentro de admisión de un paciente a un servicio de urgencia de un establecimiento de salud.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -120,7 +120,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/EncounterCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -479,10 +479,10 @@
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
+    <t>Identificador(es) por los que se conoce este encuentro</t>
+  </si>
+  <si>
+    <t>Es el número de identificación del encuentro realizado</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -500,10 +500,10 @@
     <t>Encounter.status</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled</t>
+  </si>
+  <si>
+    <t>Determina el estado del encuentro remoto conforme a los códigos definidos por el estándar</t>
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
@@ -515,10 +515,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+    <t>Códigos requeridos por FHIR</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -597,6 +597,18 @@
     <t>Encounter.statusHistory.status</t>
   </si>
   <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
@@ -617,10 +629,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of patient encounter</t>
-  </si>
-  <si>
-    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
+    <t>Clasificación del encuentro con el paciente</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -632,46 +641,49 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory</t>
-  </si>
-  <si>
-    <t>List of past encounter classes</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.class</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -690,10 +702,10 @@
 </t>
   </si>
   <si>
-    <t>Specific type of encounter</t>
-  </si>
-  <si>
-    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+    <t>Tipo específico de Encuentro</t>
+  </si>
+  <si>
+    <t>Específica el tipo de encuentro</t>
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
@@ -702,10 +714,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The type of encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposEncuentroCL</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -731,10 +740,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Broad categorization of the service that is to be provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposServicio</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -775,7 +781,7 @@
     <t>Paciente</t>
   </si>
   <si>
-    <t>The patient or group present at the encounter.</t>
+    <t>La referencia al paciente que está presente en el encuentro clínico sobre un paciente nacional.</t>
   </si>
   <si>
     <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
@@ -800,10 +806,10 @@
 </t>
   </si>
   <si>
-    <t>Episodio de atención</t>
-  </si>
-  <si>
-    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
+    <t>Episodio de atención de urgencia</t>
+  </si>
+  <si>
+    <t>El episodio de atención de urgencia al que pertenece el encuentro</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -841,7 +847,7 @@
     <t>Encounter.participant</t>
   </si>
   <si>
-    <t>List of participants involved in the encounter</t>
+    <t>Participantes involucrados en el encuentro sin considerar al paciente</t>
   </si>
   <si>
     <t>The list of people responsible for providing the service.</t>
@@ -875,7 +881,7 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>Role of participant in encounter</t>
+    <t>Rol del participante en el encuentro</t>
   </si>
   <si>
     <t>Role of participant in encounter.</t>
@@ -914,11 +920,11 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Persons involved in the encounter other than the patient</t>
+    <t>Referencia al participante</t>
   </si>
   <si>
     <t>Persons involved in the encounter other than the patient.</t>
@@ -985,10 +991,10 @@
 </t>
   </si>
   <si>
-    <t>The appointment that scheduled this encounter</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter.</t>
+    <t>Reserva de un evento de atención médica entre paciente(s), profesional(es), persona(s) relacionada(s) y/o dispositivo(s)</t>
+  </si>
+  <si>
+    <t>Cita o agendamiento médico, la cual es resultado de un encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -1000,10 +1006,7 @@
     <t>Encounter.period</t>
   </si>
   <si>
-    <t>The start and end time of the encounter</t>
-  </si>
-  <si>
-    <t>The start and end time of the encounter.</t>
+    <t>La hora de inicio y finalización del encuentro</t>
   </si>
   <si>
     <t>If not (yet) known, the end of the Period may be omitted.</t>
@@ -1066,7 +1069,7 @@
     <t>Encounter.period.end</t>
   </si>
   <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
+    <t>Hora de finalización</t>
   </si>
   <si>
     <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
@@ -1094,10 +1097,7 @@
 </t>
   </si>
   <si>
-    <t>Quantity of time the encounter lasted (less time absent)</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+    <t>Cantidad de tiempo que duró el encuentro (menos tiempo ausente)</t>
   </si>
   <si>
     <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
@@ -1116,10 +1116,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Coded reason the encounter takes place</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+    <t>Razón codificada por la que tiene lugar el Encuentro</t>
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
@@ -1153,13 +1150,13 @@
     <t>Reason the encounter takes place (reference)</t>
   </si>
   <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
-    <t>The list of diagnosis relevant to this encounter</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter.</t>
+    <t>Diagnóstico relevante para este encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -1181,11 +1178,11 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreDiagnosticoCl)
 </t>
   </si>
   <si>
-    <t>The diagnosis or procedure relevant to the encounter</t>
+    <t>El diagnóstico o procedimiento relevante para el encuentro</t>
   </si>
   <si>
     <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
@@ -1993,7 +1990,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="149.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3189,7 +3186,7 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>22</v>
@@ -3301,7 +3298,7 @@
         <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>90</v>
@@ -3883,10 +3880,10 @@
         <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3916,10 +3913,10 @@
         <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>22</v>
@@ -3966,10 +3963,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3992,13 +3989,13 @@
         <v>22</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4049,7 +4046,7 @@
         <v>22</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -4078,10 +4075,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4095,7 +4092,7 @@
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>22</v>
@@ -4104,13 +4101,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4122,46 +4119,44 @@
         <v>22</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4179,21 +4174,21 @@
         <v>22</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4219,10 +4214,10 @@
         <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4273,7 +4268,7 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4302,10 +4297,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4414,10 +4409,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4528,10 +4523,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4644,10 +4639,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4670,13 +4665,13 @@
         <v>22</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4703,13 +4698,13 @@
         <v>22</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>22</v>
@@ -4727,7 +4722,7 @@
         <v>22</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
@@ -4756,10 +4751,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4782,13 +4777,13 @@
         <v>22</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4839,7 +4834,7 @@
         <v>22</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4868,10 +4863,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4885,7 +4880,7 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>22</v>
@@ -4894,16 +4889,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4929,13 +4924,11 @@
         <v>22</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>22</v>
@@ -4953,7 +4946,7 @@
         <v>22</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4968,24 +4961,24 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5008,13 +5001,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5026,7 +5019,7 @@
         <v>22</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>22</v>
@@ -5041,31 +5034,29 @@
         <v>22</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5080,7 +5071,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>171</v>
@@ -5089,15 +5080,15 @@
         <v>22</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5120,13 +5111,13 @@
         <v>22</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5153,31 +5144,31 @@
         <v>22</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5195,25 +5186,25 @@
         <v>22</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5232,16 +5223,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5291,7 +5282,7 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5306,24 +5297,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5346,13 +5337,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5403,7 +5394,7 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5418,28 +5409,28 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5458,13 +5449,13 @@
         <v>22</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5515,7 +5506,7 @@
         <v>22</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5530,10 +5521,10 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>22</v>
@@ -5544,10 +5535,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5561,7 +5552,7 @@
         <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>22</v>
@@ -5573,10 +5564,10 @@
         <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5615,17 +5606,17 @@
         <v>22</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5640,24 +5631,24 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5766,10 +5757,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5880,10 +5871,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5996,10 +5987,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6013,7 +6004,7 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>22</v>
@@ -6022,16 +6013,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6061,7 +6052,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>22</v>
@@ -6079,7 +6070,7 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6094,24 +6085,24 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6134,13 +6125,13 @@
         <v>22</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6191,7 +6182,7 @@
         <v>22</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6209,21 +6200,21 @@
         <v>22</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6231,13 +6222,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>22</v>
@@ -6246,13 +6237,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6303,7 +6294,7 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6318,27 +6309,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>22</v>
@@ -6363,10 +6354,10 @@
         <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6417,7 +6408,7 @@
         <v>22</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6432,24 +6423,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6558,10 +6549,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6672,10 +6663,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6788,10 +6779,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6814,16 +6805,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6834,7 +6825,7 @@
         <v>22</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>22</v>
@@ -6849,31 +6840,29 @@
         <v>22</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y43" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6888,24 +6877,24 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6928,13 +6917,13 @@
         <v>22</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6985,7 +6974,7 @@
         <v>22</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7003,21 +6992,21 @@
         <v>22</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7025,13 +7014,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>22</v>
@@ -7040,13 +7029,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7097,7 +7086,7 @@
         <v>22</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7112,24 +7101,24 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7140,10 +7129,10 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>22</v>
@@ -7152,13 +7141,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7209,7 +7198,7 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7224,24 +7213,24 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7264,16 +7253,16 @@
         <v>22</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7323,7 +7312,7 @@
         <v>22</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7338,24 +7327,24 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7464,10 +7453,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7537,16 +7526,16 @@
         <v>22</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>179</v>
@@ -7578,10 +7567,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7604,16 +7593,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7663,7 +7652,7 @@
         <v>22</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7672,7 +7661,7 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
@@ -7681,21 +7670,21 @@
         <v>22</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7718,23 +7707,23 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>22</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>22</v>
@@ -7779,7 +7768,7 @@
         <v>22</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7788,7 +7777,7 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
@@ -7797,21 +7786,21 @@
         <v>22</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7825,7 +7814,7 @@
         <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>22</v>
@@ -7834,10 +7823,10 @@
         <v>22</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>343</v>
@@ -7893,7 +7882,7 @@
         <v>22</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7908,7 +7897,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>345</v>
@@ -7939,7 +7928,7 @@
         <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>22</v>
@@ -7948,16 +7937,16 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7986,10 +7975,10 @@
         <v>113</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>22</v>
@@ -8022,24 +8011,24 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8062,16 +8051,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8121,7 +8110,7 @@
         <v>22</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8136,16 +8125,16 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8167,7 +8156,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>22</v>
@@ -8182,7 +8171,7 @@
         <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8251,7 +8240,7 @@
         <v>22</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>22</v>
@@ -8262,10 +8251,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8374,10 +8363,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8488,10 +8477,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8604,14 +8593,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8630,16 +8619,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8689,7 +8678,7 @@
         <v>22</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>89</v>
@@ -8704,24 +8693,24 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8744,13 +8733,13 @@
         <v>22</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8780,11 +8769,11 @@
         <v>113</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>22</v>
       </c>
@@ -8801,7 +8790,7 @@
         <v>22</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8830,10 +8819,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8856,13 +8845,13 @@
         <v>22</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8913,7 +8902,7 @@
         <v>22</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8931,7 +8920,7 @@
         <v>22</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>22</v>
@@ -8942,10 +8931,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8968,16 +8957,16 @@
         <v>22</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9027,7 +9016,7 @@
         <v>22</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9045,7 +9034,7 @@
         <v>22</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>22</v>
@@ -9056,10 +9045,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9085,13 +9074,13 @@
         <v>167</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9141,7 +9130,7 @@
         <v>22</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9159,7 +9148,7 @@
         <v>22</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>22</v>
@@ -9170,10 +9159,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9282,10 +9271,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9293,7 +9282,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9311,10 +9300,10 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9353,14 +9342,14 @@
         <v>22</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>179</v>
@@ -9392,13 +9381,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>22</v>
@@ -9420,13 +9409,13 @@
         <v>22</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9486,7 +9475,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>140</v>
@@ -9506,13 +9495,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>22</v>
@@ -9534,13 +9523,13 @@
         <v>22</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9600,7 +9589,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>140</v>
@@ -9620,13 +9609,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>22</v>
@@ -9648,13 +9637,13 @@
         <v>22</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9714,7 +9703,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>140</v>
@@ -9734,10 +9723,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9850,10 +9839,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9879,10 +9868,10 @@
         <v>147</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9933,7 +9922,7 @@
         <v>22</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -9957,15 +9946,15 @@
         <v>22</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9988,13 +9977,13 @@
         <v>22</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10045,7 +10034,7 @@
         <v>22</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10063,7 +10052,7 @@
         <v>22</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>22</v>
@@ -10074,10 +10063,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10100,13 +10089,13 @@
         <v>22</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10136,11 +10125,11 @@
         <v>159</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>22</v>
       </c>
@@ -10157,7 +10146,7 @@
         <v>22</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10175,21 +10164,21 @@
         <v>22</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>432</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10212,13 +10201,13 @@
         <v>22</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10245,14 +10234,14 @@
         <v>22</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>22</v>
       </c>
@@ -10269,7 +10258,7 @@
         <v>22</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10293,15 +10282,15 @@
         <v>22</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10324,19 +10313,19 @@
         <v>22</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>22</v>
@@ -10361,14 +10350,14 @@
         <v>22</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>22</v>
       </c>
@@ -10385,7 +10374,7 @@
         <v>22</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10403,21 +10392,21 @@
         <v>22</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10440,13 +10429,13 @@
         <v>22</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10476,11 +10465,11 @@
         <v>113</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>22</v>
       </c>
@@ -10497,7 +10486,7 @@
         <v>22</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10515,21 +10504,21 @@
         <v>22</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>454</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10552,13 +10541,13 @@
         <v>22</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10588,11 +10577,11 @@
         <v>113</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>22</v>
       </c>
@@ -10609,7 +10598,7 @@
         <v>22</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10627,21 +10616,21 @@
         <v>22</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10664,13 +10653,13 @@
         <v>22</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10721,7 +10710,7 @@
         <v>22</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -10739,21 +10728,21 @@
         <v>22</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10776,13 +10765,13 @@
         <v>22</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10809,14 +10798,14 @@
         <v>22</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>22</v>
       </c>
@@ -10833,7 +10822,7 @@
         <v>22</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -10851,21 +10840,21 @@
         <v>22</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10891,13 +10880,13 @@
         <v>167</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10947,7 +10936,7 @@
         <v>22</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -10965,7 +10954,7 @@
         <v>22</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>22</v>
@@ -10976,10 +10965,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11088,10 +11077,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11202,10 +11191,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11318,10 +11307,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11344,13 +11333,13 @@
         <v>22</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11401,7 +11390,7 @@
         <v>22</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>89</v>
@@ -11416,24 +11405,24 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11459,13 +11448,13 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11494,11 +11483,11 @@
         <v>159</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AA84" t="s" s="2">
         <v>22</v>
       </c>
@@ -11515,7 +11504,7 @@
         <v>22</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11533,7 +11522,7 @@
         <v>22</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>22</v>
@@ -11544,10 +11533,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11570,16 +11559,16 @@
         <v>22</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11605,14 +11594,14 @@
         <v>22</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>22</v>
       </c>
@@ -11629,7 +11618,7 @@
         <v>22</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -11658,10 +11647,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11684,13 +11673,13 @@
         <v>22</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11741,7 +11730,7 @@
         <v>22</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -11759,7 +11748,7 @@
         <v>22</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>22</v>
@@ -11770,10 +11759,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11796,13 +11785,13 @@
         <v>22</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11853,7 +11842,7 @@
         <v>22</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -11868,24 +11857,24 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11908,16 +11897,16 @@
         <v>22</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11967,7 +11956,7 @@
         <v>22</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -11982,10 +11971,10 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>22</v>
